--- a/Covid-CountryWiseDeaths-data.xlsx
+++ b/Covid-CountryWiseDeaths-data.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill/>
     </fill>
@@ -49,37 +49,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006AAED6"/>
+        <fgColor rgb="007CB7DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0072B2D8"/>
+        <fgColor rgb="0084BCDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5D4E9"/>
+        <fgColor rgb="00BED8EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7E6F5"/>
+        <fgColor rgb="00DAE8F6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFECF7"/>
+        <fgColor rgb="00E1EDF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAF3FB"/>
+        <fgColor rgb="00ECF4FB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDF4FC"/>
+        <fgColor rgb="00EEF5FC"/>
       </patternFill>
     </fill>
     <fill>
@@ -99,11 +99,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F5FAFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F6FAFF"/>
       </patternFill>
     </fill>
@@ -114,7 +109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000E58A2"/>
+        <fgColor rgb="0008478D"/>
       </patternFill>
     </fill>
     <fill>
@@ -129,12 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BED8EC"/>
+        <fgColor rgb="00BDD7EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003484BF"/>
+        <fgColor rgb="002474B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -149,11 +144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0085BCDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00EBF3FB"/>
       </patternFill>
     </fill>
@@ -164,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1EDF8"/>
+        <fgColor rgb="00F5FAFE"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,62 +184,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00DEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E9F2FA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEF5FC"/>
+        <fgColor rgb="003585BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002A7AB9"/>
+        <fgColor rgb="00C1D9ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F0FA"/>
+        <fgColor rgb="00B0D2E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCD7EB"/>
+        <fgColor rgb="00DCEAF6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AACFE5"/>
+        <fgColor rgb="00E2EDF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBE9F6"/>
+        <fgColor rgb="0058A1CF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004D99CA"/>
+        <fgColor rgb="00D4E4F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8F1FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D2E3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EEF9"/>
+        <fgColor rgb="00E5EFF9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00EFF6FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDF4FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4EFF9"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,53 +267,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="26" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="30" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="31" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="17" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="23" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="34" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="35" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="36" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="19" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="37" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="22" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="38" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="39" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="24" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="27" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="26" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="40" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="41" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="28" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="42" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="27" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="43" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="31" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="30" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -661,16 +655,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>6820</v>
+        <v>7503</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>69176</v>
+        <v>74386</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8326</v>
+        <v>9362</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>54030</v>
+        <v>57521</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +746,13 @@
         <v>1102</v>
       </c>
       <c r="D6" s="16" t="n">
-        <v>22637</v>
+        <v>22654</v>
       </c>
       <c r="E6" s="17" t="n">
         <v>3288</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>18247</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +765,10 @@
         </is>
       </c>
       <c r="C7" s="19" t="n">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D7" s="20" t="n">
-        <v>55267</v>
+        <v>60115</v>
       </c>
       <c r="E7" s="21" t="n">
         <v>354</v>
@@ -796,13 +790,13 @@
         <v>434</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>8317</v>
+        <v>8328</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>140</v>
       </c>
       <c r="F8" s="25" t="n">
-        <v>7743</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="9">
@@ -814,17 +808,17 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="17" t="n">
         <v>357</v>
       </c>
-      <c r="D9" s="27" t="n">
-        <v>6437</v>
+      <c r="D9" s="10" t="n">
+        <v>6438</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>6076</v>
+      <c r="F9" s="26" t="n">
+        <v>6077</v>
       </c>
     </row>
     <row r="10">
@@ -836,17 +830,17 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C10" s="28" t="n">
-        <v>181</v>
-      </c>
-      <c r="D10" s="29" t="n">
-        <v>35714</v>
+      <c r="C10" s="27" t="n">
+        <v>186</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>35740</v>
       </c>
       <c r="E10" s="17" t="n">
         <v>3540</v>
       </c>
-      <c r="F10" s="30" t="n">
-        <v>31993</v>
+      <c r="F10" s="28" t="n">
+        <v>32014</v>
       </c>
     </row>
     <row r="11">
@@ -858,16 +852,16 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="27" t="n">
         <v>178</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="29" t="n">
         <v>4937</v>
       </c>
       <c r="E11" s="21" t="n">
         <v>547</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="7" t="n">
         <v>4212</v>
       </c>
     </row>
@@ -880,7 +874,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="30" t="n">
         <v>149</v>
       </c>
       <c r="D12" s="13" t="n">
@@ -889,7 +883,7 @@
       <c r="E12" s="22" t="n">
         <v>131</v>
       </c>
-      <c r="F12" s="34" t="n">
+      <c r="F12" s="31" t="n">
         <v>10257</v>
       </c>
     </row>
@@ -902,16 +896,16 @@
           <t>Korea, South</t>
         </is>
       </c>
-      <c r="C13" s="35" t="n">
+      <c r="C13" s="32" t="n">
         <v>126</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="19" t="n">
         <v>9137</v>
       </c>
       <c r="E13" s="17" t="n">
         <v>3730</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="33" t="n">
         <v>5281</v>
       </c>
     </row>
@@ -924,16 +918,16 @@
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="C14" s="37" t="n">
+      <c r="C14" s="21" t="n">
         <v>58</v>
       </c>
-      <c r="D14" s="37" t="n">
+      <c r="D14" s="34" t="n">
         <v>790</v>
       </c>
       <c r="E14" s="22" t="n">
         <v>31</v>
       </c>
-      <c r="F14" s="38" t="n">
+      <c r="F14" s="35" t="n">
         <v>701</v>
       </c>
     </row>
@@ -949,13 +943,13 @@
       <c r="C15" s="21" t="n">
         <v>47</v>
       </c>
-      <c r="D15" s="39" t="n">
+      <c r="D15" s="36" t="n">
         <v>2274</v>
       </c>
       <c r="E15" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="40" t="n">
+      <c r="F15" s="37" t="n">
         <v>2225</v>
       </c>
     </row>
@@ -965,20 +959,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C16" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="D16" s="39" t="n">
-        <v>2526</v>
+      <c r="D16" s="30" t="n">
+        <v>1874</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F16" s="17" t="n">
-        <v>2466</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="38" t="n">
+        <v>1830</v>
       </c>
     </row>
     <row r="17">
@@ -987,20 +981,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C17" s="21" t="n">
         <v>44</v>
       </c>
-      <c r="D17" s="33" t="n">
-        <v>1874</v>
+      <c r="D17" s="36" t="n">
+        <v>2526</v>
       </c>
       <c r="E17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="41" t="n">
-        <v>1830</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="39" t="n">
+        <v>2466</v>
       </c>
     </row>
     <row r="18">
@@ -1015,13 +1009,13 @@
       <c r="C18" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="D18" s="42" t="n">
+      <c r="D18" s="37" t="n">
         <v>2995</v>
       </c>
       <c r="E18" s="22" t="n">
         <v>22</v>
       </c>
-      <c r="F18" s="26" t="n">
+      <c r="F18" s="40" t="n">
         <v>2930</v>
       </c>
     </row>
@@ -1037,7 +1031,7 @@
       <c r="C19" s="21" t="n">
         <v>43</v>
       </c>
-      <c r="D19" s="38" t="n">
+      <c r="D19" s="35" t="n">
         <v>1193</v>
       </c>
       <c r="E19" s="22" t="n">
@@ -1065,7 +1059,7 @@
       <c r="E20" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="F20" s="37" t="n">
+      <c r="F20" s="34" t="n">
         <v>572</v>
       </c>
     </row>
@@ -1081,14 +1075,14 @@
       <c r="C21" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="D21" s="33" t="n">
-        <v>1852</v>
+      <c r="D21" s="30" t="n">
+        <v>1853</v>
       </c>
       <c r="E21" s="22" t="n">
         <v>41</v>
       </c>
-      <c r="F21" s="41" t="n">
-        <v>1777</v>
+      <c r="F21" s="36" t="n">
+        <v>1778</v>
       </c>
     </row>
     <row r="22">
@@ -1103,13 +1097,13 @@
       <c r="C22" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="41" t="n">
         <v>5588</v>
       </c>
       <c r="E22" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="42" t="n">
         <v>5549</v>
       </c>
     </row>
@@ -1122,7 +1116,7 @@
           <t>Iraq</t>
         </is>
       </c>
-      <c r="C23" s="21" t="n">
+      <c r="C23" s="22" t="n">
         <v>29</v>
       </c>
       <c r="D23" s="21" t="n">
@@ -1131,7 +1125,7 @@
       <c r="E23" s="22" t="n">
         <v>103</v>
       </c>
-      <c r="F23" s="21" t="n">
+      <c r="F23" s="22" t="n">
         <v>214</v>
       </c>
     </row>
@@ -1144,17 +1138,17 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="C24" s="21" t="n">
-        <v>27</v>
-      </c>
-      <c r="D24" s="38" t="n">
-        <v>1082</v>
+      <c r="C24" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" s="35" t="n">
+        <v>1173</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="35" t="n">
-        <v>1052</v>
+      <c r="F24" s="30" t="n">
+        <v>1142</v>
       </c>
     </row>
     <row r="25">
@@ -1166,10 +1160,10 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="C25" s="21" t="n">
+      <c r="C25" s="22" t="n">
         <v>27</v>
       </c>
-      <c r="D25" s="41" t="n">
+      <c r="D25" s="38" t="n">
         <v>2792</v>
       </c>
       <c r="E25" s="22" t="n">
@@ -1185,20 +1179,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C26" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D26" s="22" t="n">
-        <v>187</v>
+        <v>22</v>
+      </c>
+      <c r="D26" s="34" t="n">
+        <v>821</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="22" t="n">
-        <v>162</v>
+        <v>36</v>
+      </c>
+      <c r="F26" s="35" t="n">
+        <v>763</v>
       </c>
     </row>
     <row r="27">
@@ -1229,20 +1223,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" s="37" t="n">
-        <v>743</v>
+        <v>21</v>
+      </c>
+      <c r="D28" s="22" t="n">
+        <v>302</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F28" s="38" t="n">
-        <v>694</v>
+        <v>65</v>
+      </c>
+      <c r="F28" s="22" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="29">
@@ -1251,20 +1245,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="C29" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="D29" s="33" t="n">
-        <v>1796</v>
+        <v>21</v>
+      </c>
+      <c r="D29" s="22" t="n">
+        <v>187</v>
       </c>
       <c r="E29" s="22" t="n">
-        <v>199</v>
-      </c>
-      <c r="F29" s="39" t="n">
-        <v>1578</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="22" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="30">
@@ -1273,20 +1267,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C30" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="D30" s="22" t="n">
-        <v>264</v>
+        <v>20</v>
+      </c>
+      <c r="D30" s="30" t="n">
+        <v>1796</v>
       </c>
       <c r="E30" s="22" t="n">
-        <v>65</v>
-      </c>
-      <c r="F30" s="22" t="n">
-        <v>180</v>
+        <v>199</v>
+      </c>
+      <c r="F30" s="36" t="n">
+        <v>1577</v>
       </c>
     </row>
     <row r="31">
@@ -1295,20 +1289,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="D31" s="42" t="n">
-        <v>2971</v>
+      <c r="D31" s="35" t="n">
+        <v>1031</v>
       </c>
       <c r="E31" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="26" t="n">
-        <v>2951</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="32" t="n">
+        <v>1015</v>
       </c>
     </row>
     <row r="32">
@@ -1317,20 +1311,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="D32" s="37" t="n">
-        <v>957</v>
+        <v>14</v>
+      </c>
+      <c r="D32" s="34" t="n">
+        <v>906</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F32" s="35" t="n">
-        <v>942</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33">
@@ -1339,20 +1333,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C33" s="22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="37" t="n">
-        <v>906</v>
+        <v>3034</v>
       </c>
       <c r="E33" s="22" t="n">
-        <v>86</v>
-      </c>
-      <c r="F33" s="38" t="n">
-        <v>807</v>
+        <v>6</v>
+      </c>
+      <c r="F33" s="40" t="n">
+        <v>3014</v>
       </c>
     </row>
     <row r="34">
@@ -1361,20 +1355,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Diamond Princess</t>
         </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="D34" s="22" t="n">
-        <v>226</v>
-      </c>
-      <c r="E34" s="22" t="n">
-        <v>21</v>
+      <c r="D34" s="34" t="n">
+        <v>712</v>
+      </c>
+      <c r="E34" s="34" t="n">
+        <v>587</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>195</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1395,7 +1389,7 @@
       <c r="E35" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="F35" s="37" t="n">
+      <c r="F35" s="34" t="n">
         <v>554</v>
       </c>
     </row>
@@ -1405,20 +1399,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C36" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="D36" s="21" t="n">
-        <v>392</v>
+      <c r="D36" s="22" t="n">
+        <v>226</v>
       </c>
       <c r="E36" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" s="21" t="n">
-        <v>379</v>
+        <v>21</v>
+      </c>
+      <c r="F36" s="22" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="37">
@@ -1427,20 +1421,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Diamond Princess</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="D37" s="37" t="n">
-        <v>712</v>
-      </c>
-      <c r="E37" s="37" t="n">
-        <v>587</v>
-      </c>
-      <c r="F37" s="22" t="n">
-        <v>115</v>
+      <c r="D37" s="21" t="n">
+        <v>392</v>
+      </c>
+      <c r="E37" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" s="21" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="38">
@@ -1449,20 +1443,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C38" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D38" s="38" t="n">
-        <v>1099</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="21" t="n">
+        <v>416</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" s="33" t="n">
-        <v>1085</v>
+        <v>1</v>
+      </c>
+      <c r="F38" s="21" t="n">
+        <v>406</v>
       </c>
     </row>
     <row r="39">
@@ -1471,20 +1465,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="D39" s="38" t="n">
-        <v>1022</v>
+      <c r="D39" s="32" t="n">
+        <v>1333</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="F39" s="35" t="n">
-        <v>993</v>
+        <v>6</v>
+      </c>
+      <c r="F39" s="30" t="n">
+        <v>1319</v>
       </c>
     </row>
     <row r="40">
@@ -1493,20 +1487,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="D40" s="39" t="n">
-        <v>2364</v>
+      <c r="D40" s="35" t="n">
+        <v>1022</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>119</v>
-      </c>
-      <c r="F40" s="40" t="n">
-        <v>2237</v>
+        <v>21</v>
+      </c>
+      <c r="F40" s="32" t="n">
+        <v>993</v>
       </c>
     </row>
     <row r="41">
@@ -1515,20 +1509,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D41" s="21" t="n">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="E41" s="22" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -1537,20 +1531,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C42" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" s="21" t="n">
-        <v>387</v>
+        <v>8</v>
+      </c>
+      <c r="D42" s="36" t="n">
+        <v>2364</v>
       </c>
       <c r="E42" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F42" s="21" t="n">
-        <v>328</v>
+        <v>119</v>
+      </c>
+      <c r="F42" s="37" t="n">
+        <v>2237</v>
       </c>
     </row>
     <row r="43">
@@ -1559,20 +1553,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" s="35" t="n">
-        <v>1329</v>
+        <v>8</v>
+      </c>
+      <c r="D43" s="21" t="n">
+        <v>387</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" s="28" t="n">
-        <v>1317</v>
+        <v>52</v>
+      </c>
+      <c r="F43" s="21" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="44">
@@ -1581,20 +1575,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="C44" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D44" s="21" t="n">
-        <v>443</v>
+        <v>7</v>
+      </c>
+      <c r="D44" s="32" t="n">
+        <v>1329</v>
       </c>
       <c r="E44" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="37" t="n">
-        <v>436</v>
+        <v>5</v>
+      </c>
+      <c r="F44" s="30" t="n">
+        <v>1317</v>
       </c>
     </row>
     <row r="45">
@@ -1607,16 +1601,16 @@
         </is>
       </c>
       <c r="C45" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D45" s="35" t="n">
-        <v>1497</v>
+        <v>6</v>
+      </c>
+      <c r="D45" s="30" t="n">
+        <v>1654</v>
       </c>
       <c r="E45" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F45" s="39" t="n">
-        <v>1482</v>
+      <c r="F45" s="36" t="n">
+        <v>1638</v>
       </c>
     </row>
     <row r="46">
@@ -1625,20 +1619,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>5</v>
       </c>
       <c r="D46" s="21" t="n">
-        <v>528</v>
+        <v>405</v>
       </c>
       <c r="E46" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" s="37" t="n">
-        <v>513</v>
+        <v>4</v>
+      </c>
+      <c r="F46" s="21" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="47">
@@ -1647,20 +1641,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="22" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E47" s="22" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F47" s="22" t="n">
-        <v>124</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
@@ -1669,20 +1663,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="C48" s="22" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="22" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E48" s="22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F48" s="22" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -1713,20 +1707,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="21" t="n">
-        <v>405</v>
+        <v>528</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" s="21" t="n">
-        <v>396</v>
+        <v>10</v>
+      </c>
+      <c r="F50" s="34" t="n">
+        <v>513</v>
       </c>
     </row>
     <row r="51">
@@ -1741,13 +1735,13 @@
       <c r="C51" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D51" s="28" t="n">
+      <c r="D51" s="27" t="n">
         <v>2170</v>
       </c>
       <c r="E51" s="22" t="n">
         <v>58</v>
       </c>
-      <c r="F51" s="42" t="n">
+      <c r="F51" s="37" t="n">
         <v>2107</v>
       </c>
     </row>
@@ -1757,20 +1751,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="22" t="n">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="21" t="n">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="F52" s="22" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="53">
@@ -1779,20 +1773,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D53" s="21" t="n">
-        <v>384</v>
+      <c r="D53" s="22" t="n">
+        <v>114</v>
       </c>
       <c r="E53" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="F53" s="21" t="n">
-        <v>365</v>
+        <v>7</v>
+      </c>
+      <c r="F53" s="22" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="54">
@@ -1801,20 +1795,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="37" t="n">
-        <v>934</v>
+      <c r="D54" s="21" t="n">
+        <v>333</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>70</v>
-      </c>
-      <c r="F54" s="35" t="n">
-        <v>860</v>
+        <v>8</v>
+      </c>
+      <c r="F54" s="21" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="55">
@@ -1823,20 +1817,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>4</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" s="22" t="n">
-        <v>165</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="21" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="56">
@@ -1867,20 +1861,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D57" s="22" t="n">
-        <v>114</v>
+      <c r="D57" s="34" t="n">
+        <v>934</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="F57" s="22" t="n">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="F57" s="35" t="n">
+        <v>860</v>
       </c>
     </row>
     <row r="58">
@@ -1889,20 +1883,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>4</v>
       </c>
       <c r="D58" s="21" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="E58" s="22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F58" s="21" t="n">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59">
@@ -1911,20 +1905,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="22" t="n">
-        <v>124</v>
+      <c r="D59" s="35" t="n">
+        <v>1142</v>
       </c>
       <c r="E59" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="22" t="n">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="F59" s="32" t="n">
+        <v>1117</v>
       </c>
     </row>
     <row r="60">
@@ -1933,20 +1927,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C60" s="22" t="n">
         <v>3</v>
       </c>
       <c r="D60" s="21" t="n">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="E60" s="22" t="n">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="F60" s="21" t="n">
-        <v>369</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61">
@@ -1955,20 +1949,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C61" s="22" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="22" t="n">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="E61" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="22" t="n">
-        <v>163</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -1977,20 +1971,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="C62" s="22" t="n">
         <v>3</v>
       </c>
       <c r="D62" s="22" t="n">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="E62" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F62" s="21" t="n">
-        <v>213</v>
+        <v>1</v>
+      </c>
+      <c r="F62" s="22" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="63">
@@ -2005,7 +1999,7 @@
       <c r="C63" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D63" s="37" t="n">
+      <c r="D63" s="34" t="n">
         <v>880</v>
       </c>
       <c r="E63" s="22" t="n">
@@ -2043,20 +2037,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>3</v>
       </c>
       <c r="D65" s="22" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="E65" s="22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="22" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -2065,20 +2059,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D66" s="38" t="n">
-        <v>1142</v>
+      <c r="D66" s="22" t="n">
+        <v>242</v>
       </c>
       <c r="E66" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F66" s="33" t="n">
-        <v>1117</v>
+        <v>4</v>
+      </c>
+      <c r="F66" s="21" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="67">
@@ -2087,20 +2081,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="21" t="n">
-        <v>419</v>
+      <c r="D67" s="22" t="n">
+        <v>168</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>177</v>
-      </c>
-      <c r="F67" s="21" t="n">
-        <v>239</v>
+        <v>2</v>
+      </c>
+      <c r="F67" s="22" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="68">
@@ -2109,20 +2103,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C68" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" s="37" t="n">
-        <v>737</v>
+        <v>3</v>
+      </c>
+      <c r="D68" s="21" t="n">
+        <v>378</v>
       </c>
       <c r="E68" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="F68" s="38" t="n">
-        <v>679</v>
+        <v>6</v>
+      </c>
+      <c r="F68" s="21" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="69">
@@ -2131,20 +2125,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="C69" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D69" s="21" t="n">
-        <v>631</v>
+      <c r="D69" s="22" t="n">
+        <v>235</v>
       </c>
       <c r="E69" s="22" t="n">
-        <v>156</v>
-      </c>
-      <c r="F69" s="37" t="n">
-        <v>473</v>
+        <v>29</v>
+      </c>
+      <c r="F69" s="22" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="70">
@@ -2153,20 +2147,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="22" t="n">
-        <v>79</v>
+      <c r="D70" s="34" t="n">
+        <v>737</v>
       </c>
       <c r="E70" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F70" s="22" t="n">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="F70" s="35" t="n">
+        <v>679</v>
       </c>
     </row>
     <row r="71">
@@ -2175,20 +2169,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="37" t="n">
-        <v>900</v>
+      <c r="D71" s="22" t="n">
+        <v>93</v>
       </c>
       <c r="E71" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F71" s="35" t="n">
-        <v>869</v>
+        <v>10</v>
+      </c>
+      <c r="F71" s="22" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -2197,20 +2191,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>2</v>
       </c>
       <c r="D72" s="22" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E72" s="22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72" s="22" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
@@ -2219,20 +2213,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Congo (Kinshasa)</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="22" t="n">
-        <v>48</v>
+      <c r="D73" s="21" t="n">
+        <v>333</v>
       </c>
       <c r="E73" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="22" t="n">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="F73" s="21" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="74">
@@ -2241,20 +2235,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="22" t="n">
-        <v>48</v>
+      <c r="D74" s="34" t="n">
+        <v>900</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="22" t="n">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="F74" s="35" t="n">
+        <v>869</v>
       </c>
     </row>
     <row r="75">
@@ -2263,20 +2257,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="22" t="n">
-        <v>177</v>
+      <c r="D75" s="21" t="n">
+        <v>631</v>
       </c>
       <c r="E75" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F75" s="22" t="n">
-        <v>173</v>
+        <v>160</v>
+      </c>
+      <c r="F75" s="34" t="n">
+        <v>469</v>
       </c>
     </row>
     <row r="76">
@@ -2285,7 +2279,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C76" s="22" t="n">
@@ -2295,10 +2289,10 @@
         <v>177</v>
       </c>
       <c r="E76" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="22" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77">
@@ -2307,20 +2301,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C77" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D77" s="21" t="n">
-        <v>333</v>
+      <c r="D77" s="22" t="n">
+        <v>84</v>
       </c>
       <c r="E77" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F77" s="21" t="n">
-        <v>279</v>
+        <v>2</v>
+      </c>
+      <c r="F77" s="22" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="78">
@@ -2329,20 +2323,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Congo (Kinshasa)</t>
         </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>2</v>
       </c>
       <c r="D78" s="22" t="n">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="E78" s="22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F78" s="22" t="n">
-        <v>204</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -2351,20 +2345,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="22" t="n">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="E79" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="22" t="n">
-        <v>186</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -2373,20 +2367,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="22" t="n">
-        <v>25</v>
+      <c r="D80" s="34" t="n">
+        <v>658</v>
       </c>
       <c r="E80" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" s="22" t="n">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="F80" s="34" t="n">
+        <v>628</v>
       </c>
     </row>
     <row r="81">
@@ -2395,20 +2389,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="22" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E81" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="22" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82">
@@ -2417,20 +2411,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="22" t="n">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="E82" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="22" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
@@ -2439,20 +2433,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D83" s="22" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E83" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="22" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84">
@@ -2483,20 +2477,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D85" s="22" t="n">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E85" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="22" t="n">
-        <v>6</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86">
@@ -2505,20 +2499,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="22" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22" t="n">
         <v>2</v>
-      </c>
-      <c r="F86" s="22" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="87">
@@ -2527,20 +2521,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="22" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E87" s="22" t="n">
         <v>2</v>
       </c>
       <c r="F87" s="22" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
@@ -2549,20 +2543,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="C88" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="22" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E88" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F88" s="22" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2571,20 +2565,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="21" t="n">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E89" s="22" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F89" s="21" t="n">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90">
@@ -2593,20 +2587,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D90" s="22" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="22" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2615,20 +2609,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D91" s="37" t="n">
-        <v>658</v>
+      <c r="D91" s="21" t="n">
+        <v>442</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F91" s="37" t="n">
-        <v>628</v>
+        <v>22</v>
+      </c>
+      <c r="F91" s="21" t="n">
+        <v>419</v>
       </c>
     </row>
     <row r="92">
@@ -2637,20 +2631,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92" s="22" t="n">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -2659,20 +2653,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -2681,20 +2675,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="22" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95">
@@ -2703,20 +2697,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="22" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="22" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -2725,20 +2719,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F96" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -2747,20 +2741,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="21" t="n">
-        <v>526</v>
+      <c r="D97" s="22" t="n">
+        <v>7</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="F97" s="37" t="n">
-        <v>485</v>
+        <v>0</v>
+      </c>
+      <c r="F97" s="22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -2769,7 +2763,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="C98" s="22" t="n">
@@ -2791,20 +2785,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="C99" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="22" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E99" s="22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F99" s="22" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2813,20 +2807,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D100" s="22" t="n">
-        <v>1</v>
+      <c r="D100" s="21" t="n">
+        <v>526</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" s="22" t="n">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="F100" s="34" t="n">
+        <v>485</v>
       </c>
     </row>
     <row r="101">
@@ -2835,20 +2829,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="22" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E101" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F101" s="22" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2857,20 +2851,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F102" s="22" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -2879,20 +2873,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="22" t="n">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="E103" s="22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F103" s="22" t="n">
-        <v>12</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104">
@@ -2901,20 +2895,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F104" s="22" t="n">
-        <v>124</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -2923,20 +2917,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F105" s="22" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -2945,20 +2939,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" s="22" t="n">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107">
@@ -2967,20 +2961,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="22" t="n">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="E107" s="22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F107" s="22" t="n">
-        <v>189</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
@@ -2989,20 +2983,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C108" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D108" s="22" t="n">
-        <v>14</v>
+      <c r="D108" s="34" t="n">
+        <v>709</v>
       </c>
       <c r="E108" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" s="22" t="n">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F108" s="35" t="n">
+        <v>697</v>
       </c>
     </row>
     <row r="109">
@@ -3011,20 +3005,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="22" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E109" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F109" s="22" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -3033,20 +3027,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="22" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E110" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -3055,20 +3049,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -3077,20 +3071,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="22" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E112" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F112" s="22" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -3099,20 +3093,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="22" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E113" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F113" s="22" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -3121,20 +3115,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="C114" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E114" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F114" s="22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -3143,20 +3137,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="E115" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="22" t="n">
         <v>3</v>
-      </c>
-      <c r="F115" s="22" t="n">
-        <v>99</v>
       </c>
     </row>
     <row r="116">
@@ -3165,20 +3159,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D116" s="37" t="n">
-        <v>709</v>
+      <c r="D116" s="22" t="n">
+        <v>12</v>
       </c>
       <c r="E116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="22" t="n">
         <v>12</v>
-      </c>
-      <c r="F116" s="38" t="n">
-        <v>697</v>
       </c>
     </row>
     <row r="117">
@@ -3187,20 +3181,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C117" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D117" s="22" t="n">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E117" s="22" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F117" s="22" t="n">
-        <v>183</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
@@ -3209,20 +3203,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D118" s="22" t="n">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="E118" s="22" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F118" s="22" t="n">
-        <v>209</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
@@ -3231,20 +3225,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D119" s="22" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E119" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F119" s="22" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120">
@@ -3253,20 +3247,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="22" t="n">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E120" s="22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F120" s="22" t="n">
-        <v>90</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121">
@@ -3275,20 +3269,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="22" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E121" s="22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F121" s="22" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
@@ -3297,20 +3291,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E122" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -3319,20 +3313,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="22" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="E123" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F123" s="22" t="n">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -3341,20 +3335,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E124" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -3363,20 +3357,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="22" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E125" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F125" s="22" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -3385,20 +3379,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="22" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E126" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="22" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
@@ -3407,20 +3401,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="C127" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E127" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F127" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3429,20 +3423,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="C128" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E128" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F128" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -3451,20 +3445,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="C129" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E129" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F129" s="22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
@@ -3473,7 +3467,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="C130" s="22" t="n">
@@ -3483,10 +3477,10 @@
         <v>73</v>
       </c>
       <c r="E130" s="22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F130" s="22" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131">
@@ -3495,20 +3489,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="C131" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E131" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F131" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -3517,20 +3511,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="C132" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D132" s="22" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E132" s="22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F132" s="22" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
@@ -3539,20 +3533,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="C133" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D133" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E133" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -3561,20 +3555,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="21" t="n">
-        <v>404</v>
+      <c r="D134" s="22" t="n">
+        <v>3</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F134" s="21" t="n">
-        <v>396</v>
+        <v>0</v>
+      </c>
+      <c r="F134" s="22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -3583,20 +3577,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D135" s="22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E135" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F135" s="22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -3605,20 +3599,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D136" s="22" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E136" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F136" s="22" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -3627,7 +3621,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C137" s="22" t="n">
@@ -3637,10 +3631,10 @@
         <v>7</v>
       </c>
       <c r="E137" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F137" s="22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -3649,20 +3643,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Holy See</t>
         </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D138" s="22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E138" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F138" s="22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -3671,20 +3665,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D139" s="22" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E139" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F139" s="22" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140">
@@ -3693,20 +3687,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D140" s="22" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E140" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F140" s="22" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3715,20 +3709,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D141" s="22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E141" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F141" s="22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -3737,20 +3731,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D142" s="22" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E142" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F142" s="22" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
@@ -3759,20 +3753,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C143" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D143" s="22" t="n">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="E143" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" s="22" t="n">
-        <v>71</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144">
@@ -3781,20 +3775,20 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Congo (Brazzaville)</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="C144" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D144" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E144" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F144" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -3803,20 +3797,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C145" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D145" s="22" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E145" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F145" s="22" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146">
@@ -3825,20 +3819,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C146" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D146" s="22" t="n">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="E146" s="22" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F146" s="22" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
@@ -3847,20 +3841,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="C147" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D147" s="22" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E147" s="22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F147" s="22" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -3869,20 +3863,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="C148" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D148" s="22" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E148" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="22" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149">
@@ -3891,20 +3885,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Holy See</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C149" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D149" s="22" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E149" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F149" s="22" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="150">
@@ -3913,20 +3907,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" s="22" t="n">
-        <v>36</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
@@ -3935,20 +3929,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D151" s="22" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E151" s="22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F151" s="22" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
@@ -3957,20 +3951,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D152" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E152" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F152" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3979,20 +3973,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F153" s="22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -4001,20 +3995,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="22" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -4023,20 +4017,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D155" s="22" t="n">
+        <v>129</v>
+      </c>
+      <c r="E155" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E155" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="F155" s="22" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156">
@@ -4045,20 +4039,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="C156" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D156" s="22" t="n">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E156" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22" t="n">
         <v>2</v>
-      </c>
-      <c r="F156" s="22" t="n">
-        <v>127</v>
       </c>
     </row>
     <row r="157">
@@ -4067,20 +4061,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F157" s="22" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158">
@@ -4089,20 +4083,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D158" s="22" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E158" s="22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F158" s="22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -4111,20 +4105,20 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="C159" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D159" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E159" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F159" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
@@ -4133,20 +4127,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D160" s="22" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E160" s="22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F160" s="22" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161">
@@ -4155,20 +4149,20 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D161" s="22" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E161" s="22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F161" s="22" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162">
@@ -4177,20 +4171,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C162" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D162" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F162" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -4199,20 +4193,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F163" s="21" t="n">
-        <v>220</v>
+        <v>22</v>
+      </c>
+      <c r="F163" s="22" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="164">
@@ -4221,20 +4215,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F164" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
@@ -4243,20 +4237,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F165" s="22" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4265,20 +4259,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="22" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="E166" s="22" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F166" s="22" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -4287,20 +4281,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="C167" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="22" t="n">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="E167" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F167" s="21" t="n">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="F167" s="22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4309,20 +4303,20 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F168" s="22" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4331,20 +4325,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F169" s="22" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -4353,20 +4347,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="22" t="n">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="E170" s="22" t="n">
         <v>1</v>
       </c>
       <c r="F170" s="22" t="n">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
@@ -4375,17 +4369,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D171" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E171" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" s="22" t="n">
         <v>4</v>
@@ -4397,20 +4391,20 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D172" s="22" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E172" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F172" s="22" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4419,20 +4413,20 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="C173" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="22" t="n">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="E173" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" s="22" t="n">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F173" s="21" t="n">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Covid-CountryWiseDeaths-data.xlsx
+++ b/Covid-CountryWiseDeaths-data.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="48">
     <fill>
       <patternFill/>
     </fill>
@@ -49,22 +49,212 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007CB7DA"/>
+        <fgColor rgb="004695C8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084BCDB"/>
+        <fgColor rgb="00B4D3E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BED8EC"/>
+        <fgColor rgb="00C7DCEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAE8F6"/>
+        <fgColor rgb="00C8DCF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBDEF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0ECF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F2FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EEF5FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFF6FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F7FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5F9FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FAFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6FAFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7FBFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002B7BBA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00529DCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A98C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7D4EA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBE9F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F1FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0081BADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EDF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF2FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F8FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF3FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4F9FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F3F8FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E5F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7E6F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4EFF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1F7FD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001B69AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2D2E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008DC1DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7DBEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F7FBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBF3FB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EDF4FC"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,172 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEF5FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2F8FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F3F8FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4F9FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F6FAFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F7FBFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0008478D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004F9BCB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ADD0E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002474B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EEF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F1FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EBF3FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDEAF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FAFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F2F7FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F0F6FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5F9FE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAF2FB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1F7FD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F2FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003585BF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C1D9ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0D2E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCEAF6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EDF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0058A1CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4E4F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5EFF9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EFF6FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EDF4FC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4EFF9"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,52 +292,57 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="31" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="37" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="19" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="38" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="34" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="39" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="35" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="22" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="40" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="23" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="41" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="24" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="36" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="42" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="25" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="30" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="31" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="34" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="26" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="43" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="35" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="36" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="37" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="38" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="39" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="44" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="27" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="26" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="40" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="41" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="28" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="42" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="45" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="46" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="47" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -610,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,16 +685,16 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>7503</v>
+        <v>10779</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>74386</v>
+        <v>97689</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9362</v>
+        <v>13030</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>57521</v>
+        <v>73880</v>
       </c>
     </row>
     <row r="3">
@@ -677,16 +707,16 @@
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>3434</v>
+        <v>6606</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>47610</v>
+        <v>78799</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>5367</v>
+        <v>14709</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>38809</v>
+        <v>57484</v>
       </c>
     </row>
     <row r="4">
@@ -699,16 +729,16 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>3285</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>81661</v>
+        <v>3304</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>82122</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>73773</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>4603</v>
+        <v>75582</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>3236</v>
       </c>
     </row>
     <row r="5">
@@ -720,17 +750,17 @@
           <t>Iran</t>
         </is>
       </c>
-      <c r="C5" s="11" t="n">
-        <v>2077</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>27017</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>9625</v>
-      </c>
-      <c r="F5" s="14" t="n">
-        <v>15315</v>
+      <c r="C5" s="12" t="n">
+        <v>2640</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>38309</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>12391</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>23278</v>
       </c>
     </row>
     <row r="6">
@@ -742,17 +772,17 @@
           <t>France</t>
         </is>
       </c>
-      <c r="C6" s="15" t="n">
-        <v>1102</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>22654</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <v>3288</v>
-      </c>
-      <c r="F6" s="18" t="n">
-        <v>18264</v>
+      <c r="C6" s="16" t="n">
+        <v>2609</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>40704</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>7226</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <v>30869</v>
       </c>
     </row>
     <row r="7">
@@ -764,14 +794,14 @@
           <t>US</t>
         </is>
       </c>
-      <c r="C7" s="19" t="n">
-        <v>827</v>
-      </c>
-      <c r="D7" s="20" t="n">
-        <v>60115</v>
+      <c r="C7" s="20" t="n">
+        <v>2409</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>136880</v>
       </c>
       <c r="E7" s="21" t="n">
-        <v>354</v>
+        <v>2612</v>
       </c>
       <c r="F7" s="22" t="n">
         <v>0</v>
@@ -787,16 +817,16 @@
         </is>
       </c>
       <c r="C8" s="23" t="n">
-        <v>434</v>
+        <v>1231</v>
       </c>
       <c r="D8" s="24" t="n">
-        <v>8328</v>
+        <v>19772</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F8" s="25" t="n">
-        <v>7754</v>
+        <v>18390</v>
       </c>
     </row>
     <row r="9">
@@ -808,17 +838,17 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="C9" s="17" t="n">
-        <v>357</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>6438</v>
+      <c r="C9" s="26" t="n">
+        <v>772</v>
+      </c>
+      <c r="D9" s="27" t="n">
+        <v>10930</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26" t="n">
-        <v>6077</v>
+        <v>253</v>
+      </c>
+      <c r="F9" s="28" t="n">
+        <v>9905</v>
       </c>
     </row>
     <row r="10">
@@ -830,17 +860,17 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="C10" s="27" t="n">
-        <v>186</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>35740</v>
-      </c>
-      <c r="E10" s="17" t="n">
-        <v>3540</v>
-      </c>
-      <c r="F10" s="28" t="n">
-        <v>32014</v>
+      <c r="C10" s="11" t="n">
+        <v>490</v>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>61164</v>
+      </c>
+      <c r="E10" s="30" t="n">
+        <v>9211</v>
+      </c>
+      <c r="F10" s="31" t="n">
+        <v>51463</v>
       </c>
     </row>
     <row r="11">
@@ -852,17 +882,17 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n">
-        <v>178</v>
-      </c>
-      <c r="D11" s="29" t="n">
-        <v>4937</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>547</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>4212</v>
+      <c r="C11" s="32" t="n">
+        <v>431</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>10836</v>
+      </c>
+      <c r="E11" s="33" t="n">
+        <v>1359</v>
+      </c>
+      <c r="F11" s="30" t="n">
+        <v>9046</v>
       </c>
     </row>
     <row r="12">
@@ -874,17 +904,17 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="C12" s="30" t="n">
-        <v>149</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>10537</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <v>131</v>
-      </c>
-      <c r="F12" s="31" t="n">
-        <v>10257</v>
+      <c r="C12" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" s="35" t="n">
+        <v>14829</v>
+      </c>
+      <c r="E12" s="36" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>12934</v>
       </c>
     </row>
     <row r="13">
@@ -896,17 +926,17 @@
           <t>Korea, South</t>
         </is>
       </c>
-      <c r="C13" s="32" t="n">
-        <v>126</v>
-      </c>
-      <c r="D13" s="19" t="n">
-        <v>9137</v>
-      </c>
-      <c r="E13" s="17" t="n">
-        <v>3730</v>
-      </c>
-      <c r="F13" s="33" t="n">
-        <v>5281</v>
+      <c r="C13" s="37" t="n">
+        <v>152</v>
+      </c>
+      <c r="D13" s="38" t="n">
+        <v>9583</v>
+      </c>
+      <c r="E13" s="38" t="n">
+        <v>5033</v>
+      </c>
+      <c r="F13" s="39" t="n">
+        <v>4398</v>
       </c>
     </row>
     <row r="14">
@@ -915,20 +945,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Indonesia</t>
-        </is>
-      </c>
-      <c r="C14" s="21" t="n">
-        <v>58</v>
-      </c>
-      <c r="D14" s="34" t="n">
-        <v>790</v>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="C14" s="37" t="n">
+        <v>131</v>
+      </c>
+      <c r="D14" s="38" t="n">
+        <v>9217</v>
       </c>
       <c r="E14" s="22" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" s="35" t="n">
-        <v>701</v>
+        <v>105</v>
+      </c>
+      <c r="F14" s="30" t="n">
+        <v>8981</v>
       </c>
     </row>
     <row r="15">
@@ -937,20 +967,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="C15" s="21" t="n">
-        <v>47</v>
-      </c>
-      <c r="D15" s="36" t="n">
-        <v>2274</v>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C15" s="40" t="n">
+        <v>119</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>5962</v>
       </c>
       <c r="E15" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="37" t="n">
-        <v>2225</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="27" t="n">
+        <v>5800</v>
       </c>
     </row>
     <row r="16">
@@ -959,20 +989,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="D16" s="30" t="n">
-        <v>1874</v>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C16" s="40" t="n">
+        <v>118</v>
+      </c>
+      <c r="D16" s="34" t="n">
+        <v>4065</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38" t="n">
-        <v>1830</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="41" t="n">
+        <v>3941</v>
       </c>
     </row>
     <row r="17">
@@ -981,20 +1011,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="C17" s="21" t="n">
-        <v>44</v>
-      </c>
-      <c r="D17" s="36" t="n">
-        <v>2526</v>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C17" s="40" t="n">
+        <v>114</v>
+      </c>
+      <c r="D17" s="40" t="n">
+        <v>1285</v>
       </c>
       <c r="E17" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F17" s="39" t="n">
-        <v>2466</v>
+        <v>64</v>
+      </c>
+      <c r="F17" s="37" t="n">
+        <v>1107</v>
       </c>
     </row>
     <row r="18">
@@ -1003,20 +1033,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="C18" s="21" t="n">
-        <v>43</v>
-      </c>
-      <c r="D18" s="37" t="n">
-        <v>2995</v>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C18" s="40" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" s="42" t="n">
+        <v>3700</v>
       </c>
       <c r="E18" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>2930</v>
+        <v>16</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>3574</v>
       </c>
     </row>
     <row r="19">
@@ -1025,20 +1055,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="C19" s="21" t="n">
-        <v>43</v>
-      </c>
-      <c r="D19" s="35" t="n">
-        <v>1193</v>
-      </c>
-      <c r="E19" s="22" t="n">
-        <v>285</v>
-      </c>
-      <c r="F19" s="35" t="n">
-        <v>865</v>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C19" s="40" t="n">
+        <v>86</v>
+      </c>
+      <c r="D19" s="43" t="n">
+        <v>8743</v>
+      </c>
+      <c r="E19" s="44" t="n">
+        <v>479</v>
+      </c>
+      <c r="F19" s="45" t="n">
+        <v>8178</v>
       </c>
     </row>
     <row r="20">
@@ -1047,20 +1077,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="C20" s="21" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>636</v>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C20" s="44" t="n">
+        <v>72</v>
+      </c>
+      <c r="D20" s="33" t="n">
+        <v>2564</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>26</v>
-      </c>
-      <c r="F20" s="34" t="n">
-        <v>572</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>2419</v>
       </c>
     </row>
     <row r="21">
@@ -1069,20 +1099,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="C21" s="21" t="n">
-        <v>34</v>
-      </c>
-      <c r="D21" s="30" t="n">
-        <v>1853</v>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C21" s="44" t="n">
+        <v>71</v>
+      </c>
+      <c r="D21" s="40" t="n">
+        <v>1418</v>
       </c>
       <c r="E21" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="F21" s="36" t="n">
-        <v>1778</v>
+        <v>42</v>
+      </c>
+      <c r="F21" s="33" t="n">
+        <v>1305</v>
       </c>
     </row>
     <row r="22">
@@ -1091,20 +1121,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="C22" s="21" t="n">
-        <v>30</v>
-      </c>
-      <c r="D22" s="41" t="n">
-        <v>5588</v>
-      </c>
-      <c r="E22" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" s="42" t="n">
-        <v>5549</v>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C22" s="44" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>6243</v>
+      </c>
+      <c r="E22" s="44" t="n">
+        <v>466</v>
+      </c>
+      <c r="F22" s="22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1113,20 +1143,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="C23" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="D23" s="21" t="n">
-        <v>346</v>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C23" s="44" t="n">
+        <v>57</v>
+      </c>
+      <c r="D23" s="37" t="n">
+        <v>1890</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>103</v>
-      </c>
-      <c r="F23" s="22" t="n">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="F23" s="42" t="n">
+        <v>1830</v>
       </c>
     </row>
     <row r="24">
@@ -1135,20 +1165,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="C24" s="22" t="n">
-        <v>28</v>
-      </c>
-      <c r="D24" s="35" t="n">
-        <v>1173</v>
-      </c>
-      <c r="E24" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>1142</v>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C24" s="44" t="n">
+        <v>54</v>
+      </c>
+      <c r="D24" s="37" t="n">
+        <v>1866</v>
+      </c>
+      <c r="E24" s="44" t="n">
+        <v>424</v>
+      </c>
+      <c r="F24" s="33" t="n">
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1157,20 +1187,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="C25" s="22" t="n">
-        <v>27</v>
-      </c>
-      <c r="D25" s="38" t="n">
-        <v>2792</v>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C25" s="44" t="n">
+        <v>46</v>
+      </c>
+      <c r="D25" s="33" t="n">
+        <v>2615</v>
       </c>
       <c r="E25" s="22" t="n">
-        <v>110</v>
-      </c>
-      <c r="F25" s="22" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F25" s="21" t="n">
+        <v>2564</v>
       </c>
     </row>
     <row r="26">
@@ -1179,20 +1209,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="C26" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="D26" s="34" t="n">
-        <v>821</v>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C26" s="44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" s="37" t="n">
+        <v>1760</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>36</v>
-      </c>
-      <c r="F26" s="35" t="n">
-        <v>763</v>
+        <v>206</v>
+      </c>
+      <c r="F26" s="36" t="n">
+        <v>1511</v>
       </c>
     </row>
     <row r="27">
@@ -1201,20 +1231,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="C27" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D27" s="21" t="n">
-        <v>442</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="44" t="n">
+        <v>547</v>
       </c>
       <c r="E27" s="22" t="n">
-        <v>93</v>
-      </c>
-      <c r="F27" s="21" t="n">
-        <v>328</v>
+        <v>143</v>
+      </c>
+      <c r="F27" s="44" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="28">
@@ -1223,20 +1253,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D28" s="22" t="n">
-        <v>302</v>
+        <v>40</v>
+      </c>
+      <c r="D28" s="44" t="n">
+        <v>609</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>65</v>
-      </c>
-      <c r="F28" s="22" t="n">
-        <v>216</v>
+        <v>132</v>
+      </c>
+      <c r="F28" s="44" t="n">
+        <v>437</v>
       </c>
     </row>
     <row r="29">
@@ -1245,20 +1275,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="C29" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D29" s="22" t="n">
-        <v>187</v>
+        <v>39</v>
+      </c>
+      <c r="D29" s="44" t="n">
+        <v>859</v>
       </c>
       <c r="E29" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" s="22" t="n">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="F29" s="40" t="n">
+        <v>817</v>
       </c>
     </row>
     <row r="30">
@@ -1267,20 +1297,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C30" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D30" s="30" t="n">
-        <v>1796</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="40" t="n">
+        <v>1156</v>
       </c>
       <c r="E30" s="22" t="n">
-        <v>199</v>
-      </c>
-      <c r="F30" s="36" t="n">
-        <v>1577</v>
+        <v>52</v>
+      </c>
+      <c r="F30" s="37" t="n">
+        <v>1066</v>
       </c>
     </row>
     <row r="31">
@@ -1289,20 +1319,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C31" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="D31" s="35" t="n">
-        <v>1031</v>
-      </c>
-      <c r="E31" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="32" t="n">
-        <v>1015</v>
+        <v>35</v>
+      </c>
+      <c r="D31" s="33" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E31" s="44" t="n">
+        <v>388</v>
+      </c>
+      <c r="F31" s="34" t="n">
+        <v>2047</v>
       </c>
     </row>
     <row r="32">
@@ -1311,20 +1341,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" s="34" t="n">
-        <v>906</v>
+        <v>31</v>
+      </c>
+      <c r="D32" s="22" t="n">
+        <v>511</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>86</v>
-      </c>
-      <c r="F32" s="35" t="n">
-        <v>806</v>
+        <v>31</v>
+      </c>
+      <c r="F32" s="44" t="n">
+        <v>449</v>
       </c>
     </row>
     <row r="33">
@@ -1333,20 +1363,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C33" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="D33" s="37" t="n">
-        <v>3034</v>
+        <v>27</v>
+      </c>
+      <c r="D33" s="44" t="n">
+        <v>1024</v>
       </c>
       <c r="E33" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" s="40" t="n">
-        <v>3014</v>
+        <v>95</v>
+      </c>
+      <c r="F33" s="37" t="n">
+        <v>902</v>
       </c>
     </row>
     <row r="34">
@@ -1355,20 +1385,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Diamond Princess</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C34" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D34" s="34" t="n">
-        <v>712</v>
-      </c>
-      <c r="E34" s="34" t="n">
-        <v>587</v>
-      </c>
-      <c r="F34" s="22" t="n">
-        <v>115</v>
+        <v>26</v>
+      </c>
+      <c r="D34" s="22" t="n">
+        <v>463</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" s="44" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="35">
@@ -1377,20 +1407,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C35" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" s="21" t="n">
-        <v>606</v>
+        <v>25</v>
+      </c>
+      <c r="D35" s="34" t="n">
+        <v>4265</v>
       </c>
       <c r="E35" s="22" t="n">
-        <v>42</v>
-      </c>
-      <c r="F35" s="34" t="n">
-        <v>554</v>
+        <v>7</v>
+      </c>
+      <c r="F35" s="46" t="n">
+        <v>4233</v>
       </c>
     </row>
     <row r="36">
@@ -1399,20 +1429,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="C36" s="22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D36" s="22" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E36" s="22" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F36" s="22" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
@@ -1421,20 +1451,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="D37" s="21" t="n">
-        <v>392</v>
+        <v>22</v>
+      </c>
+      <c r="D37" s="37" t="n">
+        <v>1862</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F37" s="21" t="n">
-        <v>379</v>
+        <v>7</v>
+      </c>
+      <c r="F37" s="42" t="n">
+        <v>1833</v>
       </c>
     </row>
     <row r="38">
@@ -1443,20 +1473,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C38" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D38" s="21" t="n">
-        <v>416</v>
+        <v>21</v>
+      </c>
+      <c r="D38" s="37" t="n">
+        <v>1950</v>
       </c>
       <c r="E38" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="21" t="n">
-        <v>406</v>
+        <v>40</v>
+      </c>
+      <c r="F38" s="42" t="n">
+        <v>1889</v>
       </c>
     </row>
     <row r="39">
@@ -1465,20 +1495,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C39" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D39" s="32" t="n">
-        <v>1333</v>
+        <v>19</v>
+      </c>
+      <c r="D39" s="44" t="n">
+        <v>745</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F39" s="30" t="n">
-        <v>1319</v>
+        <v>72</v>
+      </c>
+      <c r="F39" s="40" t="n">
+        <v>654</v>
       </c>
     </row>
     <row r="40">
@@ -1487,20 +1517,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D40" s="35" t="n">
-        <v>1022</v>
+        <v>18</v>
+      </c>
+      <c r="D40" s="44" t="n">
+        <v>852</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="F40" s="32" t="n">
-        <v>993</v>
+        <v>16</v>
+      </c>
+      <c r="F40" s="40" t="n">
+        <v>818</v>
       </c>
     </row>
     <row r="41">
@@ -1513,16 +1543,16 @@
         </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D41" s="21" t="n">
-        <v>443</v>
+        <v>17</v>
+      </c>
+      <c r="D41" s="44" t="n">
+        <v>901</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="21" t="n">
-        <v>434</v>
+        <v>4</v>
+      </c>
+      <c r="F41" s="37" t="n">
+        <v>880</v>
       </c>
     </row>
     <row r="42">
@@ -1531,20 +1561,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C42" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D42" s="36" t="n">
-        <v>2364</v>
+        <v>16</v>
+      </c>
+      <c r="D42" s="44" t="n">
+        <v>848</v>
       </c>
       <c r="E42" s="22" t="n">
-        <v>119</v>
-      </c>
-      <c r="F42" s="37" t="n">
-        <v>2237</v>
+        <v>4</v>
+      </c>
+      <c r="F42" s="40" t="n">
+        <v>828</v>
       </c>
     </row>
     <row r="43">
@@ -1553,20 +1583,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D43" s="21" t="n">
-        <v>387</v>
+        <v>16</v>
+      </c>
+      <c r="D43" s="36" t="n">
+        <v>2743</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F43" s="21" t="n">
-        <v>327</v>
+        <v>11</v>
+      </c>
+      <c r="F43" s="47" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="44">
@@ -1575,20 +1605,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C44" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D44" s="32" t="n">
-        <v>1329</v>
+        <v>16</v>
+      </c>
+      <c r="D44" s="34" t="n">
+        <v>3980</v>
       </c>
       <c r="E44" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F44" s="30" t="n">
-        <v>1317</v>
+        <v>244</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <v>3720</v>
       </c>
     </row>
     <row r="45">
@@ -1597,20 +1627,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C45" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D45" s="30" t="n">
-        <v>1654</v>
+        <v>15</v>
+      </c>
+      <c r="D45" s="34" t="n">
+        <v>4247</v>
       </c>
       <c r="E45" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" s="36" t="n">
-        <v>1638</v>
+        <v>132</v>
+      </c>
+      <c r="F45" s="46" t="n">
+        <v>4100</v>
       </c>
     </row>
     <row r="46">
@@ -1619,20 +1649,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C46" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D46" s="21" t="n">
-        <v>405</v>
+        <v>14</v>
+      </c>
+      <c r="D46" s="40" t="n">
+        <v>1571</v>
       </c>
       <c r="E46" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F46" s="21" t="n">
-        <v>396</v>
+        <v>29</v>
+      </c>
+      <c r="F46" s="36" t="n">
+        <v>1528</v>
       </c>
     </row>
     <row r="47">
@@ -1641,20 +1671,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="C47" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" s="22" t="n">
-        <v>170</v>
+        <v>13</v>
+      </c>
+      <c r="D47" s="44" t="n">
+        <v>741</v>
       </c>
       <c r="E47" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F47" s="22" t="n">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="40" t="n">
+        <v>728</v>
       </c>
     </row>
     <row r="48">
@@ -1663,20 +1693,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="C48" s="22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D48" s="22" t="n">
-        <v>146</v>
+        <v>408</v>
       </c>
       <c r="E48" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="F48" s="22" t="n">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="F48" s="44" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="49">
@@ -1685,20 +1715,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="C49" s="22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D49" s="22" t="n">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F49" s="22" t="n">
-        <v>27</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50">
@@ -1711,16 +1741,16 @@
         </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D50" s="21" t="n">
-        <v>528</v>
+        <v>11</v>
+      </c>
+      <c r="D50" s="44" t="n">
+        <v>730</v>
       </c>
       <c r="E50" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="34" t="n">
-        <v>513</v>
+      <c r="F50" s="40" t="n">
+        <v>709</v>
       </c>
     </row>
     <row r="51">
@@ -1729,20 +1759,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C51" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D51" s="27" t="n">
-        <v>2170</v>
+        <v>11</v>
+      </c>
+      <c r="D51" s="40" t="n">
+        <v>1240</v>
       </c>
       <c r="E51" s="22" t="n">
-        <v>58</v>
-      </c>
-      <c r="F51" s="37" t="n">
-        <v>2107</v>
+        <v>10</v>
+      </c>
+      <c r="F51" s="33" t="n">
+        <v>1219</v>
       </c>
     </row>
     <row r="52">
@@ -1751,20 +1781,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Diamond Princess</t>
         </is>
       </c>
       <c r="C52" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D52" s="22" t="n">
-        <v>173</v>
-      </c>
-      <c r="E52" s="22" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D52" s="44" t="n">
+        <v>712</v>
+      </c>
+      <c r="E52" s="40" t="n">
+        <v>597</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -1773,20 +1803,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="C53" s="22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D53" s="22" t="n">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="E53" s="22" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F53" s="22" t="n">
-        <v>103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
@@ -1795,20 +1825,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C54" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" s="21" t="n">
-        <v>333</v>
+        <v>10</v>
+      </c>
+      <c r="D54" s="44" t="n">
+        <v>702</v>
       </c>
       <c r="E54" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F54" s="21" t="n">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="F54" s="40" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="55">
@@ -1817,20 +1847,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="21" t="n">
-        <v>250</v>
+        <v>30</v>
+      </c>
+      <c r="F55" s="44" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="56">
@@ -1843,16 +1873,16 @@
         </is>
       </c>
       <c r="C56" s="22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" s="22" t="n">
-        <v>116</v>
+        <v>418</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="22" t="n">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="F56" s="44" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="57">
@@ -1861,20 +1891,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C57" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" s="34" t="n">
-        <v>934</v>
+        <v>8</v>
+      </c>
+      <c r="D57" s="40" t="n">
+        <v>1534</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>70</v>
-      </c>
-      <c r="F57" s="35" t="n">
-        <v>860</v>
+        <v>64</v>
+      </c>
+      <c r="F57" s="36" t="n">
+        <v>1462</v>
       </c>
     </row>
     <row r="58">
@@ -1883,20 +1913,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C58" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" s="21" t="n">
-        <v>384</v>
+        <v>8</v>
+      </c>
+      <c r="D58" s="22" t="n">
+        <v>346</v>
       </c>
       <c r="E58" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="F58" s="21" t="n">
-        <v>365</v>
+        <v>14</v>
+      </c>
+      <c r="F58" s="44" t="n">
+        <v>324</v>
       </c>
     </row>
     <row r="59">
@@ -1905,20 +1935,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C59" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>1142</v>
+        <v>8</v>
+      </c>
+      <c r="D59" s="22" t="n">
+        <v>312</v>
       </c>
       <c r="E59" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F59" s="32" t="n">
-        <v>1117</v>
+        <v>2</v>
+      </c>
+      <c r="F59" s="44" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="60">
@@ -1927,20 +1957,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C60" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" s="21" t="n">
-        <v>419</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="40" t="n">
+        <v>1299</v>
       </c>
       <c r="E60" s="22" t="n">
-        <v>177</v>
-      </c>
-      <c r="F60" s="21" t="n">
-        <v>239</v>
+        <v>66</v>
+      </c>
+      <c r="F60" s="33" t="n">
+        <v>1225</v>
       </c>
     </row>
     <row r="61">
@@ -1949,20 +1979,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C61" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" s="22" t="n">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="D61" s="37" t="n">
+        <v>2139</v>
       </c>
       <c r="E61" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="22" t="n">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="F61" s="34" t="n">
+        <v>2057</v>
       </c>
     </row>
     <row r="62">
@@ -1971,20 +2001,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C62" s="22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D62" s="22" t="n">
-        <v>177</v>
+        <v>460</v>
       </c>
       <c r="E62" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="22" t="n">
-        <v>173</v>
+      <c r="F62" s="44" t="n">
+        <v>452</v>
       </c>
     </row>
     <row r="63">
@@ -1993,20 +2023,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C63" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D63" s="34" t="n">
-        <v>880</v>
+        <v>7</v>
+      </c>
+      <c r="D63" s="40" t="n">
+        <v>1388</v>
       </c>
       <c r="E63" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F63" s="35" t="n">
-        <v>867</v>
+        <v>97</v>
+      </c>
+      <c r="F63" s="33" t="n">
+        <v>1284</v>
       </c>
     </row>
     <row r="64">
@@ -2015,20 +2045,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Congo (Kinshasa)</t>
         </is>
       </c>
       <c r="C64" s="22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64" s="22" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E64" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="22" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
@@ -2037,20 +2067,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="C65" s="22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65" s="22" t="n">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="E65" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F65" s="22" t="n">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="F65" s="44" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="66">
@@ -2059,20 +2089,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="C66" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" s="22" t="n">
-        <v>242</v>
+        <v>6</v>
+      </c>
+      <c r="D66" s="44" t="n">
+        <v>713</v>
       </c>
       <c r="E66" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F66" s="21" t="n">
-        <v>235</v>
+        <v>52</v>
+      </c>
+      <c r="F66" s="40" t="n">
+        <v>655</v>
       </c>
     </row>
     <row r="67">
@@ -2081,20 +2111,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="C67" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" s="22" t="n">
+        <v>259</v>
+      </c>
+      <c r="E67" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="22" t="n">
-        <v>168</v>
-      </c>
-      <c r="E67" s="22" t="n">
-        <v>2</v>
-      </c>
       <c r="F67" s="22" t="n">
-        <v>163</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68">
@@ -2103,20 +2133,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="C68" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D68" s="21" t="n">
-        <v>378</v>
+        <v>6</v>
+      </c>
+      <c r="D68" s="22" t="n">
+        <v>323</v>
       </c>
       <c r="E68" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F68" s="21" t="n">
-        <v>369</v>
+        <v>8</v>
+      </c>
+      <c r="F68" s="44" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="69">
@@ -2125,20 +2155,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C69" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" s="22" t="n">
+        <v>152</v>
+      </c>
+      <c r="E69" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D69" s="22" t="n">
-        <v>235</v>
-      </c>
-      <c r="E69" s="22" t="n">
-        <v>29</v>
-      </c>
       <c r="F69" s="22" t="n">
-        <v>204</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
@@ -2147,20 +2177,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="C70" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" s="34" t="n">
-        <v>737</v>
+        <v>5</v>
+      </c>
+      <c r="D70" s="22" t="n">
+        <v>48</v>
       </c>
       <c r="E70" s="22" t="n">
-        <v>56</v>
-      </c>
-      <c r="F70" s="35" t="n">
-        <v>679</v>
+        <v>15</v>
+      </c>
+      <c r="F70" s="22" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -2169,20 +2199,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C71" s="22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" s="22" t="n">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="E71" s="22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F71" s="22" t="n">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72">
@@ -2191,20 +2221,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="C72" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="22" t="n">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="E72" s="22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F72" s="22" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -2213,20 +2243,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="C73" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" s="22" t="n">
+        <v>120</v>
+      </c>
+      <c r="E73" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="21" t="n">
-        <v>333</v>
-      </c>
-      <c r="E73" s="22" t="n">
-        <v>52</v>
-      </c>
-      <c r="F73" s="21" t="n">
-        <v>279</v>
+      <c r="F73" s="22" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="74">
@@ -2235,20 +2265,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="C74" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" s="34" t="n">
-        <v>900</v>
+        <v>4</v>
+      </c>
+      <c r="D74" s="22" t="n">
+        <v>499</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F74" s="35" t="n">
-        <v>869</v>
+        <v>272</v>
+      </c>
+      <c r="F74" s="22" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="75">
@@ -2257,20 +2287,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="C75" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D75" s="21" t="n">
-        <v>631</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="22" t="n">
+        <v>76</v>
       </c>
       <c r="E75" s="22" t="n">
-        <v>160</v>
-      </c>
-      <c r="F75" s="34" t="n">
-        <v>469</v>
+        <v>1</v>
+      </c>
+      <c r="F75" s="22" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76">
@@ -2279,20 +2309,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="C76" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="22" t="n">
-        <v>177</v>
+        <v>424</v>
       </c>
       <c r="E76" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F76" s="22" t="n">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="F76" s="44" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="77">
@@ -2301,20 +2331,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="C77" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="22" t="n">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E77" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" s="22" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78">
@@ -2323,20 +2353,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Congo (Kinshasa)</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C78" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D78" s="22" t="n">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="44" t="n">
+        <v>570</v>
       </c>
       <c r="E78" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" s="22" t="n">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="F78" s="44" t="n">
+        <v>509</v>
       </c>
     </row>
     <row r="79">
@@ -2345,20 +2375,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="C79" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="22" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E79" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="22" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80">
@@ -2367,20 +2397,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="C80" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" s="34" t="n">
-        <v>658</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="44" t="n">
+        <v>844</v>
       </c>
       <c r="E80" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F80" s="34" t="n">
-        <v>628</v>
+        <v>212</v>
+      </c>
+      <c r="F80" s="40" t="n">
+        <v>629</v>
       </c>
     </row>
     <row r="81">
@@ -2389,20 +2419,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C81" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" s="22" t="n">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="44" t="n">
+        <v>679</v>
       </c>
       <c r="E81" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="22" t="n">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="F81" s="40" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="82">
@@ -2411,20 +2441,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="C82" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="22" t="n">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="E82" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" s="22" t="n">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -2433,20 +2463,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C83" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="22" t="n">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="E83" s="22" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F83" s="22" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
@@ -2455,20 +2485,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="C84" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="22" t="n">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="E84" s="22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F84" s="22" t="n">
-        <v>3</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85">
@@ -2477,20 +2507,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C85" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="22" t="n">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E85" s="22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F85" s="22" t="n">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
@@ -2499,20 +2529,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C86" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="22" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E86" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" s="22" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
@@ -2521,20 +2551,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C87" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="22" t="n">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="E87" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" s="22" t="n">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="F87" s="44" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="88">
@@ -2543,20 +2573,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="C88" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="22" t="n">
+        <v>110</v>
+      </c>
+      <c r="E88" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="E88" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" s="22" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
@@ -2565,20 +2595,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="C89" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="21" t="n">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="D89" s="22" t="n">
+        <v>263</v>
       </c>
       <c r="E89" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F89" s="21" t="n">
-        <v>395</v>
+        <v>2</v>
+      </c>
+      <c r="F89" s="22" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="90">
@@ -2587,20 +2617,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C90" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D90" s="44" t="n">
+        <v>1020</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="22" t="n">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="F90" s="37" t="n">
+        <v>904</v>
       </c>
     </row>
     <row r="91">
@@ -2609,20 +2639,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" s="21" t="n">
-        <v>442</v>
+        <v>2</v>
+      </c>
+      <c r="D91" s="40" t="n">
+        <v>1280</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F91" s="21" t="n">
-        <v>419</v>
+        <v>31</v>
+      </c>
+      <c r="F91" s="33" t="n">
+        <v>1247</v>
       </c>
     </row>
     <row r="92">
@@ -2631,20 +2661,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="C92" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F92" s="22" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
@@ -2653,20 +2683,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>5</v>
+        <v>298</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F93" s="22" t="n">
-        <v>4</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94">
@@ -2675,20 +2705,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F94" s="22" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
@@ -2697,20 +2727,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="22" t="n">
-        <v>57</v>
+        <v>514</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="22" t="n">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F95" s="44" t="n">
+        <v>457</v>
       </c>
     </row>
     <row r="96">
@@ -2719,20 +2749,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>1</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="22" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
@@ -2741,20 +2771,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C97" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E97" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="22" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
@@ -2763,20 +2793,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="C98" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" s="22" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E98" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F98" s="22" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -2785,20 +2815,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="C99" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="22" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E99" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -2807,20 +2837,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="C100" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="21" t="n">
-        <v>526</v>
+        <v>1</v>
+      </c>
+      <c r="D100" s="22" t="n">
+        <v>4</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>41</v>
-      </c>
-      <c r="F100" s="34" t="n">
-        <v>485</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2829,20 +2859,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="C101" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="22" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E101" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F101" s="22" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -2851,20 +2881,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E102" s="22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F102" s="22" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
@@ -2873,20 +2903,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C103" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="22" t="n">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="E103" s="22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F103" s="22" t="n">
-        <v>209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -2895,20 +2925,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F104" s="22" t="n">
-        <v>7</v>
+      <c r="F104" s="44" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="105">
@@ -2917,20 +2947,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" s="22" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="D105" s="44" t="n">
+        <v>634</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" s="22" t="n">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="F105" s="40" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="106">
@@ -2939,20 +2969,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="22" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
@@ -2961,20 +2991,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="C107" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="22" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E107" s="22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F107" s="22" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
@@ -2983,20 +3013,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C108" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="34" t="n">
-        <v>709</v>
+        <v>1</v>
+      </c>
+      <c r="D108" s="22" t="n">
+        <v>6</v>
       </c>
       <c r="E108" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="F108" s="35" t="n">
-        <v>697</v>
+        <v>0</v>
+      </c>
+      <c r="F108" s="22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -3005,20 +3035,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="C109" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F109" s="22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -3027,20 +3057,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="C110" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E110" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F110" s="22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -3049,20 +3079,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="C111" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="22" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E111" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="22" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
@@ -3071,20 +3101,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="C112" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="22" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E112" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="22" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113">
@@ -3093,20 +3123,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="C113" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="22" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E113" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113" s="22" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114">
@@ -3115,20 +3145,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="C114" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="22" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="E114" s="22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F114" s="22" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115">
@@ -3137,20 +3167,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F115" s="22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -3159,20 +3189,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C116" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="22" t="n">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="E116" s="22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F116" s="22" t="n">
-        <v>12</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117">
@@ -3181,20 +3211,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="C117" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="22" t="n">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="E117" s="22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F117" s="22" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3203,20 +3233,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C118" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="22" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E118" s="22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F118" s="22" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
@@ -3225,20 +3255,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="C119" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="22" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E119" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="22" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
@@ -3247,20 +3277,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D120" s="22" t="n">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="E120" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F120" s="22" t="n">
-        <v>189</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -3269,20 +3299,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D121" s="22" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E121" s="22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F121" s="22" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
@@ -3291,20 +3321,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D122" s="22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E122" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
@@ -3313,20 +3343,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D123" s="22" t="n">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="E123" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F123" s="44" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="124">
@@ -3335,20 +3365,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D124" s="22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E124" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F124" s="22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -3357,20 +3387,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D125" s="22" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E125" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F125" s="22" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -3379,20 +3409,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="22" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E126" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="22" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -3401,20 +3431,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C127" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E127" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="22" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -3423,20 +3453,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Congo (Brazzaville)</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="C128" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="22" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E128" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F128" s="22" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -3445,20 +3475,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="C129" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E129" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F129" s="22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -3467,20 +3497,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="C130" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D130" s="22" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E130" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F130" s="22" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131">
@@ -3489,20 +3519,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="C131" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="22" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E131" s="22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F131" s="22" t="n">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
@@ -3511,20 +3541,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="C132" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D132" s="22" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E132" s="22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F132" s="22" t="n">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -3533,7 +3563,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="C133" s="22" t="n">
@@ -3555,20 +3585,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F134" s="22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -3577,20 +3607,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D135" s="22" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E135" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F135" s="22" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -3599,20 +3629,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D136" s="22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E136" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F136" s="22" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -3621,20 +3651,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D137" s="22" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E137" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F137" s="22" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -3643,20 +3673,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Holy See</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D138" s="22" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E138" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F138" s="22" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -3665,20 +3695,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D139" s="22" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E139" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F139" s="22" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140">
@@ -3687,20 +3717,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D140" s="22" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E140" s="22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F140" s="22" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
@@ -3709,20 +3739,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D141" s="22" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E141" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F141" s="22" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -3731,20 +3761,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D142" s="22" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E142" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F142" s="22" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -3753,20 +3783,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C143" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D143" s="22" t="n">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E143" s="22" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F143" s="22" t="n">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144">
@@ -3775,7 +3805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="C144" s="22" t="n">
@@ -3797,20 +3827,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="C145" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D145" s="22" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E145" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F145" s="22" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -3819,20 +3849,20 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="C146" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D146" s="22" t="n">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="E146" s="22" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F146" s="22" t="n">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -3841,20 +3871,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="C147" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D147" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E147" s="22" t="n">
         <v>1</v>
       </c>
       <c r="F147" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -3863,20 +3893,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="C148" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D148" s="22" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E148" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" s="22" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3885,20 +3915,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="C149" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D149" s="22" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E149" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="22" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -3907,20 +3937,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D150" s="22" t="n">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F150" s="22" t="n">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151">
@@ -3929,20 +3959,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D151" s="22" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E151" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F151" s="22" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152">
@@ -3951,20 +3981,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D152" s="22" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="E152" s="22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F152" s="22" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153">
@@ -3973,17 +4003,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F153" s="22" t="n">
         <v>5</v>
@@ -3995,20 +4025,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F154" s="22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -4017,20 +4047,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D155" s="22" t="n">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E155" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" s="22" t="n">
-        <v>127</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -4039,7 +4069,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="C156" s="22" t="n">
@@ -4049,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="E156" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -4061,20 +4091,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>29</v>
-      </c>
-      <c r="F157" s="22" t="n">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="F157" s="44" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="158">
@@ -4083,20 +4113,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D158" s="22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E158" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F158" s="22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -4105,20 +4135,20 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="C159" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D159" s="22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E159" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F159" s="22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -4127,20 +4157,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D160" s="22" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E160" s="22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F160" s="22" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
@@ -4149,20 +4179,20 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D161" s="22" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E161" s="22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F161" s="22" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -4171,20 +4201,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="C162" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D162" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E162" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E162" s="22" t="n">
-        <v>0</v>
-      </c>
       <c r="F162" s="22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
@@ -4193,20 +4223,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F163" s="22" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164">
@@ -4215,20 +4245,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" s="22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -4237,20 +4267,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F165" s="22" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166">
@@ -4259,20 +4289,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D166" s="22" t="n">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="E166" s="22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F166" s="22" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167">
@@ -4281,20 +4311,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C167" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="22" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E167" s="22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F167" s="22" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168">
@@ -4303,7 +4333,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="C168" s="22" t="n">
@@ -4325,20 +4355,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F169" s="22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -4347,20 +4377,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D170" s="22" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E170" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" s="22" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -4369,20 +4399,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D171" s="22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E171" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F171" s="22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172">
@@ -4391,20 +4421,20 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D172" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172" s="22" t="n">
         <v>0</v>
       </c>
       <c r="F172" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -4413,20 +4443,130 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Holy See</t>
         </is>
       </c>
       <c r="C173" s="22" t="n">
         <v>0</v>
       </c>
       <c r="D173" s="22" t="n">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="E173" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F173" s="21" t="n">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="F173" s="22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="E174" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="E175" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Saint Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MS Zaandam</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="E178" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F178" s="22" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
